--- a/tweets.xlsx
+++ b/tweets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Weber\Documents\CienciaDados\Projeto 2\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihan\Documents\Dados\projeto2_WeberMichel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B415D-4AD4-4F25-B77F-ACF52E99F7A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBBE554-98B0-475E-9629-418E25E34D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="376">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1249,9 +1249,6 @@
   </si>
   <si>
     <t>assisti o filme do yakult lá, achei fofinho</t>
-  </si>
-  <si>
-    <t>IRRELEVANTE(0) / RUIM(1) / BOM(2)</t>
   </si>
   <si>
     <t>Categoria</t>
@@ -1343,7 +1340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1665,25 +1662,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="64" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="190.109375" customWidth="1"/>
+    <col min="1" max="1" width="190.08984375" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1875,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1899,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1931,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1939,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1979,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -2163,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2179,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -2219,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2235,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2275,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -2291,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -2299,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -2331,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -2339,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -2355,7 +2352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -2371,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -2387,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -2403,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -2427,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -2435,7 +2432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>38</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -2451,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -2507,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -2523,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -2555,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>94</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>97</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>98</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -2619,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>100</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>101</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>102</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -2675,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>105</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>106</v>
       </c>
@@ -2699,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -2707,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>109</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>110</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>112</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>113</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -2771,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>115</v>
       </c>
@@ -2795,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -2803,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>92</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2827,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>119</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -2851,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>121</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>124</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>125</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>38</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>128</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>129</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>130</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>133</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>134</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>135</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>136</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>137</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>139</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>140</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>141</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>142</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>143</v>
       </c>
@@ -3091,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -3099,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>146</v>
       </c>
@@ -3139,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>147</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>149</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>150</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>151</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>152</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -3195,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>154</v>
       </c>
@@ -3203,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>155</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>157</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>158</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>159</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>160</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -3259,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>161</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>162</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>164</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>165</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>166</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -3323,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>168</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -3347,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>169</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>170</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>171</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>172</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>173</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>174</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>175</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>176</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>177</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>178</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>179</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>180</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>181</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>182</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>183</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>184</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>185</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>186</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>188</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>189</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>190</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>191</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>192</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -3627,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>193</v>
       </c>
@@ -3635,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>194</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>195</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>196</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>197</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>198</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>199</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>200</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>201</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>202</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -3731,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>203</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>204</v>
       </c>
@@ -3747,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>205</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>206</v>
       </c>
@@ -3763,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>207</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>208</v>
       </c>
@@ -3787,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>209</v>
       </c>
@@ -3795,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>210</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>211</v>
       </c>
@@ -3811,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -3827,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>212</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>213</v>
       </c>
@@ -3843,7 +3840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>214</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -3859,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>26</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>215</v>
       </c>
@@ -3875,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>216</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>217</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>173</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>218</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>219</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -3931,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>220</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>221</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>222</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>223</v>
       </c>
@@ -3963,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>224</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>225</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>26</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -3995,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>226</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>227</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>228</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>229</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>230</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>30</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>231</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>232</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>233</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>26</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>234</v>
       </c>
@@ -4083,358 +4080,358 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B320" s="3"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B322" s="3"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B324" s="3"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B325" s="3"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B326" s="3"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B327" s="3"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B328" s="3"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B329" s="3"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B330" s="3"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B337" s="3"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B338" s="3"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B345" s="3"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B349" s="3"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B350" s="3"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B351" s="3"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B352" s="3"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B353" s="3"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B354" s="3"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B356" s="3"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B357" s="3"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B358" s="3"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B359" s="3"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B362" s="3"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B363" s="3"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B364" s="3"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B365" s="3"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B366" s="3"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B367" s="3"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B368" s="3"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B369" s="3"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B370" s="3"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B374" s="3"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B375" s="3"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B377" s="3"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B380" s="3"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B383" s="3"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B384" s="3"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B387" s="3"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B390" s="3"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B394" s="3"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B395" s="3"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B405" s="3"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B407" s="3"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B408" s="3"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B409" s="3"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B410" s="3"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B411" s="3"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B412" s="3"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B413" s="3"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B414" s="3"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B415" s="3"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B419" s="3"/>
     </row>
   </sheetData>
@@ -4447,17 +4444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="137.88671875" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="137.90625" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4473,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -4497,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -4513,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -4529,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4545,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>241</v>
       </c>
@@ -4553,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4561,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4601,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -4609,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>246</v>
       </c>
@@ -4625,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -4641,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>248</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4657,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>249</v>
       </c>
@@ -4673,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>250</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>251</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>252</v>
       </c>
@@ -4697,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -4737,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>255</v>
       </c>
@@ -4753,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>256</v>
       </c>
@@ -4761,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>257</v>
       </c>
@@ -4769,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -4777,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4785,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -4809,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>261</v>
       </c>
@@ -4817,7 +4814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>262</v>
       </c>
@@ -4825,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>263</v>
       </c>
@@ -4833,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>264</v>
       </c>
@@ -4841,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>265</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -4857,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>267</v>
       </c>
@@ -4865,7 +4862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -4873,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>268</v>
       </c>
@@ -4881,7 +4878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>269</v>
       </c>
@@ -4897,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -4913,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -4921,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>274</v>
       </c>
@@ -4937,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>276</v>
       </c>
@@ -4961,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>277</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -4985,7 +4982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -4993,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -5017,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>282</v>
       </c>
@@ -5025,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>283</v>
       </c>
@@ -5033,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>284</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>285</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -5057,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -5065,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>286</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>287</v>
       </c>
@@ -5081,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>288</v>
       </c>
@@ -5089,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5097,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>289</v>
       </c>
@@ -5121,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>290</v>
       </c>
@@ -5129,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>291</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>292</v>
       </c>
@@ -5145,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -5153,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>294</v>
       </c>
@@ -5161,7 +5158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -5177,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>297</v>
       </c>
@@ -5185,7 +5182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>298</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -5201,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -5209,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>299</v>
       </c>
@@ -5217,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>300</v>
       </c>
@@ -5225,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -5233,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>302</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>303</v>
       </c>
@@ -5249,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>304</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -5273,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -5281,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -5289,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>308</v>
       </c>
@@ -5297,7 +5294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -5313,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>309</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>310</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -5337,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>312</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>313</v>
       </c>
@@ -5353,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>314</v>
       </c>
@@ -5377,7 +5374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>316</v>
       </c>
@@ -5409,7 +5406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>317</v>
       </c>
@@ -5425,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>319</v>
       </c>
@@ -5441,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>320</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>321</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -5489,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>322</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>323</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -5521,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>325</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -5537,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>326</v>
       </c>
@@ -5545,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -5553,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>327</v>
       </c>
@@ -5561,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>328</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -5577,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>38</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>329</v>
       </c>
@@ -5593,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>330</v>
       </c>
@@ -5601,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -5609,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>331</v>
       </c>
@@ -5617,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -5625,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -5649,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>333</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>334</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>335</v>
       </c>
@@ -5681,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -5689,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>336</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>337</v>
       </c>
@@ -5705,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>338</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>339</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>340</v>
       </c>
@@ -5729,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>341</v>
       </c>
@@ -5737,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>342</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>343</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>345</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -5777,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>346</v>
       </c>
@@ -5785,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>347</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>348</v>
       </c>
@@ -5801,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>38</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>349</v>
       </c>
@@ -5833,7 +5830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -5841,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>350</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>351</v>
       </c>
@@ -5857,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>352</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -5873,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -5881,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -5897,7 +5894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>357</v>
       </c>
@@ -5905,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>359</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>360</v>
       </c>
@@ -5929,7 +5926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>361</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>362</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>363</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -5961,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>364</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>365</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>55</v>
       </c>
@@ -5993,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>366</v>
       </c>
@@ -6001,7 +5998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>367</v>
       </c>
@@ -6009,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>368</v>
       </c>
@@ -6017,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>370</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>371</v>
       </c>
@@ -6041,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>372</v>
       </c>
@@ -6049,7 +6046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>373</v>
       </c>
@@ -6057,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>374</v>
       </c>
